--- a/Templates/db_mappings_noagegroup.xlsx
+++ b/Templates/db_mappings_noagegroup.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t xml:space="preserve">FB_version</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">CB_q6_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB_q6_0</t>
   </si>
   <si>
     <t xml:space="preserve">CB_q7_1</t>
@@ -338,13 +341,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.8"/>
@@ -786,10 +789,10 @@
         <v>56</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -800,10 +803,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>59</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>43</v>
@@ -817,13 +820,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="E28" s="0" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,10 +837,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>7</v>
@@ -851,10 +854,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>7</v>
@@ -868,10 +871,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>67</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>7</v>
@@ -885,10 +888,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>7</v>
@@ -902,13 +905,13 @@
         <v>2</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="E33" s="0" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,12 +922,29 @@
         <v>2</v>
       </c>
       <c r="C34" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="E34" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>20201118</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="D35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>43</v>
       </c>
     </row>
